--- a/tables/Census/demographic/Excel/pak_demo-converted.xlsx
+++ b/tables/Census/demographic/Excel/pak_demo-converted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHI-2\Project\IHI-2\tables\Census\demographic\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHI-2\Project\tables\Census\demographic\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0A5E6-016F-4AC4-8699-37235E6E59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F164870-21A4-4ECB-8D95-75AD2BF81A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,9 +370,6 @@
     <t>5.1 to 14.99 years</t>
   </si>
   <si>
-    <t>15.1 to 34.99 years</t>
-  </si>
-  <si>
     <t>35.1 to 49.99 years</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>15.1 to 33.99 years</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +399,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -410,42 +410,12 @@
       <b/>
       <sz val="6"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="6"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -462,6 +432,18 @@
     </font>
     <font>
       <sz val="6.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -660,7 +642,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,13 +657,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1561,7 @@
         <v>51.167614063478425</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1616,7 @@
         <v>48.832385936521575</v>
       </c>
       <c r="R13" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1765,7 @@
         <v>36666035</v>
       </c>
       <c r="R16" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1838,7 +1820,7 @@
         <v>52.601921642195556</v>
       </c>
       <c r="R17" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1893,7 +1875,7 @@
         <v>47.398078357804437</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2031,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P21" s="23">
         <f>SUM(B25,B31,B37,B43)</f>
@@ -2042,7 +2024,7 @@
         <v>42854181</v>
       </c>
       <c r="R21" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2097,7 +2079,7 @@
         <v>49.336966677767101</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2152,7 +2134,7 @@
         <v>50.651743875352565</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2196,7 +2178,7 @@
         <v>13</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P24" s="25">
         <f>(SUM(E25,E31,E37,E43)/$P$21)*100</f>
@@ -2207,7 +2189,7 @@
         <v>1.1289446880340568E-2</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2344,7 +2326,7 @@
         <v>180</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" s="23">
         <f>SUM(B49,B55,B61)</f>
@@ -2355,7 +2337,7 @@
         <v>17753937</v>
       </c>
       <c r="R27" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2410,7 +2392,7 @@
         <v>49.659571282696341</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2465,7 +2447,7 @@
         <v>50.32657263569201</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2509,7 +2491,7 @@
         <v>205</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" s="25">
         <f>(SUM(E49,E55,E61)/$P$27)*100</f>
@@ -2520,7 +2502,7 @@
         <v>8.3087072482392471E-3</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2668,7 +2650,7 @@
         <v>14918729</v>
       </c>
       <c r="R33" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2723,7 +2705,7 @@
         <v>52.045264713904245</v>
       </c>
       <c r="R34" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2778,7 +2760,7 @@
         <v>47.938152103976151</v>
       </c>
       <c r="R35" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2822,7 +2804,7 @@
         <v>358</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P36" s="25">
         <f>(SUM(E67,E73,E79,'Table 2'!E8,'Table 2'!E14,'Table 2'!E20)/$P$33)*100</f>
@@ -2833,7 +2815,7 @@
         <v>1.6583182119602816E-2</v>
       </c>
       <c r="R36" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
